--- a/Planning/Planning_16_5_23_5.xlsx
+++ b/Planning/Planning_16_5_23_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F1334-CA06-4660-AE76-F955D713D11F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A60192-A582-4B73-A8A8-610554C8372F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,6 +448,12 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="0">C3-D3</f>
         <v>0</v>
@@ -463,6 +469,12 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -476,6 +488,16 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F5" t="s">
